--- a/SESCases.xlsx
+++ b/SESCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -154,7 +154,67 @@
     <x:t>User should be able to input value for the Contact Id field.</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Valid value for required field Root Cause </x:t>
+  </x:si>
+  <x:si>
     <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Root Cause field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Root Cause field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Location </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Location field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Location field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Meter Fit Reason </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Meter Fit Reason field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Meter Fit Reason field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Complaint Stage </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Complaint Stage field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Complaint Stage field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Complaint Category </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Complaint Category field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Complaint Category field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 14</x:t>
   </x:si>
   <x:si>
     <x:t>Click on Save button to save Case with fields</x:t>
@@ -307,8 +367,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K24" totalsRowShown="0">
-  <x:autoFilter ref="A1:K24"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K34" totalsRowShown="0">
+  <x:autoFilter ref="A1:K34"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -614,7 +674,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K24"/>
+  <x:dimension ref="A1:K34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -625,7 +685,7 @@
     <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="189.840625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="55.840625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="90.550625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
@@ -847,36 +907,32 @@
       <x:c r="B10" s="0" t="s"/>
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
       <x:c r="K10" s="0" t="s"/>
     </x:row>
     <x:row r="11" spans="1:11">
-      <x:c r="A11" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="F11" s="0" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s"/>
-      <x:c r="F11" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>52</x:v>
@@ -893,42 +949,38 @@
       <x:c r="B12" s="0" t="s"/>
       <x:c r="C12" s="0" t="s"/>
       <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
       <x:c r="K12" s="0" t="s"/>
     </x:row>
     <x:row r="13" spans="1:11">
-      <x:c r="A13" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -940,16 +992,16 @@
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -960,38 +1012,42 @@
       <x:c r="B15" s="0" t="s"/>
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
       <x:c r="K15" s="0" t="s"/>
     </x:row>
     <x:row r="16" spans="1:11">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="A16" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1002,38 +1058,42 @@
       <x:c r="B17" s="0" t="s"/>
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
+      <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
       <x:c r="K17" s="0" t="s"/>
     </x:row>
     <x:row r="18" spans="1:11">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
+      <x:c r="A18" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1045,16 +1105,16 @@
       <x:c r="C19" s="0" t="s"/>
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1066,16 +1126,16 @@
       <x:c r="C20" s="0" t="s"/>
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1086,42 +1146,38 @@
       <x:c r="B21" s="0" t="s"/>
       <x:c r="C21" s="0" t="s"/>
       <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
       <x:c r="K21" s="0" t="s"/>
     </x:row>
     <x:row r="22" spans="1:11">
-      <x:c r="A22" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s"/>
+      <x:c r="A22" s="0" t="s"/>
+      <x:c r="B22" s="0" t="s"/>
+      <x:c r="C22" s="0" t="s"/>
+      <x:c r="D22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
@@ -1132,15 +1188,17 @@
       <x:c r="B23" s="0" t="s"/>
       <x:c r="C23" s="0" t="s"/>
       <x:c r="D23" s="0" t="s"/>
-      <x:c r="E23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1151,19 +1209,231 @@
       <x:c r="B24" s="0" t="s"/>
       <x:c r="C24" s="0" t="s"/>
       <x:c r="D24" s="0" t="s"/>
-      <x:c r="E24" s="0" t="s"/>
+      <x:c r="E24" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
       <x:c r="K24" s="0" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:11">
+      <x:c r="A25" s="0" t="s"/>
+      <x:c r="B25" s="0" t="s"/>
+      <x:c r="C25" s="0" t="s"/>
+      <x:c r="D25" s="0" t="s"/>
+      <x:c r="E25" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s"/>
+      <x:c r="J25" s="0" t="s"/>
+      <x:c r="K25" s="0" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:11">
+      <x:c r="A26" s="0" t="s"/>
+      <x:c r="B26" s="0" t="s"/>
+      <x:c r="C26" s="0" t="s"/>
+      <x:c r="D26" s="0" t="s"/>
+      <x:c r="E26" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="s"/>
+      <x:c r="J26" s="0" t="s"/>
+      <x:c r="K26" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:11">
+      <x:c r="A27" s="0" t="s"/>
+      <x:c r="B27" s="0" t="s"/>
+      <x:c r="C27" s="0" t="s"/>
+      <x:c r="D27" s="0" t="s"/>
+      <x:c r="E27" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="s"/>
+      <x:c r="J27" s="0" t="s"/>
+      <x:c r="K27" s="0" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:11">
+      <x:c r="A28" s="0" t="s"/>
+      <x:c r="B28" s="0" t="s"/>
+      <x:c r="C28" s="0" t="s"/>
+      <x:c r="D28" s="0" t="s"/>
+      <x:c r="E28" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="s"/>
+      <x:c r="J28" s="0" t="s"/>
+      <x:c r="K28" s="0" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:11">
+      <x:c r="A29" s="0" t="s"/>
+      <x:c r="B29" s="0" t="s"/>
+      <x:c r="C29" s="0" t="s"/>
+      <x:c r="D29" s="0" t="s"/>
+      <x:c r="E29" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I29" s="0" t="s"/>
+      <x:c r="J29" s="0" t="s"/>
+      <x:c r="K29" s="0" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:11">
+      <x:c r="A30" s="0" t="s"/>
+      <x:c r="B30" s="0" t="s"/>
+      <x:c r="C30" s="0" t="s"/>
+      <x:c r="D30" s="0" t="s"/>
+      <x:c r="E30" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I30" s="0" t="s"/>
+      <x:c r="J30" s="0" t="s"/>
+      <x:c r="K30" s="0" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:11">
+      <x:c r="A31" s="0" t="s"/>
+      <x:c r="B31" s="0" t="s"/>
+      <x:c r="C31" s="0" t="s"/>
+      <x:c r="D31" s="0" t="s"/>
+      <x:c r="E31" s="0" t="s"/>
+      <x:c r="F31" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I31" s="0" t="s"/>
+      <x:c r="J31" s="0" t="s"/>
+      <x:c r="K31" s="0" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:11">
+      <x:c r="A32" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s"/>
+      <x:c r="F32" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I32" s="0" t="s"/>
+      <x:c r="J32" s="0" t="s"/>
+      <x:c r="K32" s="0" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:11">
+      <x:c r="A33" s="0" t="s"/>
+      <x:c r="B33" s="0" t="s"/>
+      <x:c r="C33" s="0" t="s"/>
+      <x:c r="D33" s="0" t="s"/>
+      <x:c r="E33" s="0" t="s"/>
+      <x:c r="F33" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I33" s="0" t="s"/>
+      <x:c r="J33" s="0" t="s"/>
+      <x:c r="K33" s="0" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:11">
+      <x:c r="A34" s="0" t="s"/>
+      <x:c r="B34" s="0" t="s"/>
+      <x:c r="C34" s="0" t="s"/>
+      <x:c r="D34" s="0" t="s"/>
+      <x:c r="E34" s="0" t="s"/>
+      <x:c r="F34" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="I34" s="0" t="s"/>
+      <x:c r="J34" s="0" t="s"/>
+      <x:c r="K34" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
